--- a/public/assets/Gener8.xlsx
+++ b/public/assets/Gener8.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Gener8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8267700-6925-43B3-8FF7-C3E11AE481B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155415AA-73A2-436D-B4E6-EBD3E0135223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-45" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="13188" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bed Types" sheetId="4" r:id="rId1"/>
     <sheet name="Bath Types" sheetId="5" r:id="rId2"/>
+    <sheet name="Kitchen Types" sheetId="6" r:id="rId3"/>
+    <sheet name="Island Types" sheetId="7" r:id="rId4"/>
+    <sheet name="Case Types" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>Unique Name</t>
   </si>
@@ -203,6 +206,132 @@
   </si>
   <si>
     <t>D78179</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>Granite_Area</t>
+  </si>
+  <si>
+    <t>K66204</t>
+  </si>
+  <si>
+    <t>K66192</t>
+  </si>
+  <si>
+    <t>K66180</t>
+  </si>
+  <si>
+    <t>K66168</t>
+  </si>
+  <si>
+    <t>K66156</t>
+  </si>
+  <si>
+    <t>K66144</t>
+  </si>
+  <si>
+    <t>K66141</t>
+  </si>
+  <si>
+    <t>K66129</t>
+  </si>
+  <si>
+    <t>I75204</t>
+  </si>
+  <si>
+    <t>I75192</t>
+  </si>
+  <si>
+    <t>I75180</t>
+  </si>
+  <si>
+    <t>I75168</t>
+  </si>
+  <si>
+    <t>I75156</t>
+  </si>
+  <si>
+    <t>I75144</t>
+  </si>
+  <si>
+    <t>I75141</t>
+  </si>
+  <si>
+    <t>I75129</t>
+  </si>
+  <si>
+    <t>I87204</t>
+  </si>
+  <si>
+    <t>I87192</t>
+  </si>
+  <si>
+    <t>I87180</t>
+  </si>
+  <si>
+    <t>I87168</t>
+  </si>
+  <si>
+    <t>I87156</t>
+  </si>
+  <si>
+    <t>I87144</t>
+  </si>
+  <si>
+    <t>I87141</t>
+  </si>
+  <si>
+    <t>I87129</t>
+  </si>
+  <si>
+    <t>I111204</t>
+  </si>
+  <si>
+    <t>I111192</t>
+  </si>
+  <si>
+    <t>I111180</t>
+  </si>
+  <si>
+    <t>I111168</t>
+  </si>
+  <si>
+    <t>I111156</t>
+  </si>
+  <si>
+    <t>I111144</t>
+  </si>
+  <si>
+    <t>I111141</t>
+  </si>
+  <si>
+    <t>I111129</t>
+  </si>
+  <si>
+    <t>CASE39204</t>
+  </si>
+  <si>
+    <t>CASE39192</t>
+  </si>
+  <si>
+    <t>CASE39180</t>
+  </si>
+  <si>
+    <t>CASE39168</t>
+  </si>
+  <si>
+    <t>CASE39156</t>
+  </si>
+  <si>
+    <t>CASE39144</t>
+  </si>
+  <si>
+    <t>CASE39141</t>
+  </si>
+  <si>
+    <t>CASE39129</t>
   </si>
 </sst>
 </file>
@@ -782,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3351B3EE-0D1A-497E-869E-6C5669C8A80F}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,4 +1727,719 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828B0377-E3A0-46FA-A65F-DE5378B1BCEB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E166AC-0747-4EE7-89DA-8725859B5CA2}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>28.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>204</v>
+      </c>
+      <c r="D10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>192</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>168</v>
+      </c>
+      <c r="D13">
+        <v>46.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>156</v>
+      </c>
+      <c r="D14">
+        <v>42.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>144</v>
+      </c>
+      <c r="D15">
+        <v>37.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>141</v>
+      </c>
+      <c r="D16">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>32.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>204</v>
+      </c>
+      <c r="D18">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>111</v>
+      </c>
+      <c r="C19">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>168</v>
+      </c>
+      <c r="D21">
+        <v>57.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>156</v>
+      </c>
+      <c r="D22">
+        <v>52.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>46.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>141</v>
+      </c>
+      <c r="D24">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="C25">
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>40.364600000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645715D9-2101-44EC-965A-F60AECBF820C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>198</v>
+      </c>
+      <c r="E2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>186</v>
+      </c>
+      <c r="E3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>135</v>
+      </c>
+      <c r="E8">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>15.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/assets/Gener8.xlsx
+++ b/public/assets/Gener8.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Gener8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155415AA-73A2-436D-B4E6-EBD3E0135223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916F625-A4E0-4CB2-93B5-B2881B63159B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="13188" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="13188" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bed Types" sheetId="4" r:id="rId1"/>
     <sheet name="Bath Types" sheetId="5" r:id="rId2"/>
     <sheet name="Kitchen Types" sheetId="6" r:id="rId3"/>
-    <sheet name="Island Types" sheetId="7" r:id="rId4"/>
-    <sheet name="Case Types" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>Unique Name</t>
   </si>
@@ -211,9 +209,6 @@
     <t>DW</t>
   </si>
   <si>
-    <t>Granite_Area</t>
-  </si>
-  <si>
     <t>K66204</t>
   </si>
   <si>
@@ -238,100 +233,103 @@
     <t>K66129</t>
   </si>
   <si>
-    <t>I75204</t>
-  </si>
-  <si>
-    <t>I75192</t>
-  </si>
-  <si>
-    <t>I75180</t>
-  </si>
-  <si>
-    <t>I75168</t>
-  </si>
-  <si>
-    <t>I75156</t>
-  </si>
-  <si>
-    <t>I75144</t>
-  </si>
-  <si>
-    <t>I75141</t>
-  </si>
-  <si>
-    <t>I75129</t>
-  </si>
-  <si>
-    <t>I87204</t>
-  </si>
-  <si>
-    <t>I87192</t>
-  </si>
-  <si>
-    <t>I87180</t>
-  </si>
-  <si>
-    <t>I87168</t>
-  </si>
-  <si>
-    <t>I87156</t>
-  </si>
-  <si>
-    <t>I87144</t>
-  </si>
-  <si>
-    <t>I87141</t>
-  </si>
-  <si>
-    <t>I87129</t>
-  </si>
-  <si>
-    <t>I111204</t>
-  </si>
-  <si>
-    <t>I111192</t>
-  </si>
-  <si>
-    <t>I111180</t>
-  </si>
-  <si>
-    <t>I111168</t>
-  </si>
-  <si>
-    <t>I111156</t>
-  </si>
-  <si>
-    <t>I111144</t>
-  </si>
-  <si>
-    <t>I111141</t>
-  </si>
-  <si>
-    <t>I111129</t>
-  </si>
-  <si>
-    <t>CASE39204</t>
-  </si>
-  <si>
-    <t>CASE39192</t>
-  </si>
-  <si>
-    <t>CASE39180</t>
-  </si>
-  <si>
-    <t>CASE39168</t>
-  </si>
-  <si>
-    <t>CASE39156</t>
-  </si>
-  <si>
-    <t>CASE39144</t>
-  </si>
-  <si>
-    <t>CASE39141</t>
-  </si>
-  <si>
-    <t>CASE39129</t>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>K105204</t>
+  </si>
+  <si>
+    <t>K105192</t>
+  </si>
+  <si>
+    <t>K105180</t>
+  </si>
+  <si>
+    <t>K105168</t>
+  </si>
+  <si>
+    <t>K105156</t>
+  </si>
+  <si>
+    <t>K105144</t>
+  </si>
+  <si>
+    <t>K105141</t>
+  </si>
+  <si>
+    <t>K105129</t>
+  </si>
+  <si>
+    <t>K180204</t>
+  </si>
+  <si>
+    <t>K180192</t>
+  </si>
+  <si>
+    <t>K180180</t>
+  </si>
+  <si>
+    <t>K180168</t>
+  </si>
+  <si>
+    <t>K180156</t>
+  </si>
+  <si>
+    <t>K180144</t>
+  </si>
+  <si>
+    <t>K180141</t>
+  </si>
+  <si>
+    <t>K180129</t>
+  </si>
+  <si>
+    <t>K192204</t>
+  </si>
+  <si>
+    <t>K192192</t>
+  </si>
+  <si>
+    <t>K192180</t>
+  </si>
+  <si>
+    <t>K192168</t>
+  </si>
+  <si>
+    <t>K192156</t>
+  </si>
+  <si>
+    <t>K192144</t>
+  </si>
+  <si>
+    <t>K192141</t>
+  </si>
+  <si>
+    <t>K192129</t>
+  </si>
+  <si>
+    <t>K216204</t>
+  </si>
+  <si>
+    <t>K216192</t>
+  </si>
+  <si>
+    <t>K216180</t>
+  </si>
+  <si>
+    <t>K216168</t>
+  </si>
+  <si>
+    <t>K216156</t>
+  </si>
+  <si>
+    <t>K216144</t>
+  </si>
+  <si>
+    <t>K216141</t>
+  </si>
+  <si>
+    <t>K216129</t>
   </si>
 </sst>
 </file>
@@ -651,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89C8D6A-9BDC-4F9E-9464-DAFBC4B132E6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828B0377-E3A0-46FA-A65F-DE5378B1BCEB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,11 +1740,12 @@
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1757,15 +1756,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>66</v>
@@ -1773,16 +1775,19 @@
       <c r="C2">
         <v>204</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>78</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>66</v>
@@ -1790,16 +1795,19 @@
       <c r="C3">
         <v>192</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>66</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>66</v>
@@ -1807,16 +1815,19 @@
       <c r="C4">
         <v>180</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>48</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>66</v>
@@ -1824,16 +1835,19 @@
       <c r="C5">
         <v>168</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>42</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>66</v>
@@ -1841,16 +1855,19 @@
       <c r="C6">
         <v>156</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -1858,16 +1875,19 @@
       <c r="C7">
         <v>144</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>66</v>
@@ -1875,16 +1895,19 @@
       <c r="C8">
         <v>141</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>36</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1892,551 +1915,654 @@
       <c r="C9">
         <v>129</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>24</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E166AC-0747-4EE7-89DA-8725859B5CA2}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>204</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>192</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>180</v>
-      </c>
-      <c r="D4">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>168</v>
-      </c>
-      <c r="D5">
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>156</v>
-      </c>
-      <c r="D6">
-        <v>32.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>144</v>
-      </c>
-      <c r="D7">
-        <v>28.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>141</v>
-      </c>
-      <c r="D8">
-        <v>28.07</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>129</v>
-      </c>
-      <c r="D9">
-        <v>24.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
       <c r="B10">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>204</v>
       </c>
-      <c r="D10">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>21.5</v>
+      </c>
+      <c r="F10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>192</v>
       </c>
-      <c r="D11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>19.5</v>
+      </c>
+      <c r="F11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>180</v>
       </c>
-      <c r="D12">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>17.88</v>
+      </c>
+      <c r="F12">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>168</v>
       </c>
-      <c r="D13">
-        <v>46.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F13">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>156</v>
       </c>
-      <c r="D14">
-        <v>42.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>15.25</v>
+      </c>
+      <c r="F14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>144</v>
       </c>
-      <c r="D15">
-        <v>37.875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>18.41</v>
+      </c>
+      <c r="F15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>141</v>
       </c>
-      <c r="D16">
-        <v>36.82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>17.88</v>
+      </c>
+      <c r="F16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>129</v>
       </c>
-      <c r="D17">
-        <v>32.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>15.78</v>
+      </c>
+      <c r="F17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <v>204</v>
       </c>
-      <c r="D18">
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>66.5</v>
+      </c>
+      <c r="F18">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>192</v>
       </c>
-      <c r="D19">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>61.5</v>
+      </c>
+      <c r="F19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C20">
         <v>180</v>
       </c>
-      <c r="D20">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>56.379999999999995</v>
+      </c>
+      <c r="F20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <v>168</v>
       </c>
-      <c r="D21">
-        <v>57.29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>52.6</v>
+      </c>
+      <c r="F21">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C22">
         <v>156</v>
       </c>
-      <c r="D22">
-        <v>52.08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>47.33</v>
+      </c>
+      <c r="F22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <v>144</v>
       </c>
-      <c r="D23">
-        <v>46.87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>47.28</v>
+      </c>
+      <c r="F23">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C24">
         <v>141</v>
       </c>
-      <c r="D24">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>45.95</v>
+      </c>
+      <c r="F24">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C25">
         <v>129</v>
       </c>
-      <c r="D25">
-        <v>40.364600000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645715D9-2101-44EC-965A-F60AECBF820C}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>40.64</v>
+      </c>
+      <c r="F25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>192</v>
+      </c>
+      <c r="C26">
+        <v>204</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>80.5</v>
+      </c>
+      <c r="F26">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>192</v>
+      </c>
+      <c r="C27">
+        <v>192</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>74.5</v>
+      </c>
+      <c r="F27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>192</v>
+      </c>
+      <c r="C28">
+        <v>180</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>68.38</v>
+      </c>
+      <c r="F28">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>192</v>
+      </c>
+      <c r="C29">
+        <v>168</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>63.64</v>
+      </c>
+      <c r="F29">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>192</v>
+      </c>
+      <c r="C30">
+        <v>156</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>57.33</v>
+      </c>
+      <c r="F30">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>192</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>56.284999999999997</v>
+      </c>
+      <c r="F31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>192</v>
+      </c>
+      <c r="C32">
+        <v>141</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>54.7</v>
+      </c>
+      <c r="F32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>192</v>
+      </c>
+      <c r="C33">
+        <v>129</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>48.39</v>
+      </c>
+      <c r="F33">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>93</v>
       </c>
-      <c r="B2">
-        <v>39</v>
-      </c>
-      <c r="C2">
+      <c r="B34">
+        <v>216</v>
+      </c>
+      <c r="C34">
         <v>204</v>
       </c>
-      <c r="D2">
-        <v>198</v>
-      </c>
-      <c r="E2">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>94.4</v>
+      </c>
+      <c r="F34">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>94</v>
       </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
+      <c r="B35">
+        <v>216</v>
+      </c>
+      <c r="C35">
         <v>192</v>
       </c>
-      <c r="D3">
-        <v>186</v>
-      </c>
-      <c r="E3">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>87.2</v>
+      </c>
+      <c r="F35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>95</v>
       </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-      <c r="C4">
+      <c r="B36">
+        <v>216</v>
+      </c>
+      <c r="C36">
         <v>180</v>
       </c>
-      <c r="D4">
-        <v>174</v>
-      </c>
-      <c r="E4">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>80.38</v>
+      </c>
+      <c r="F36">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>96</v>
       </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
+      <c r="B37">
+        <v>216</v>
+      </c>
+      <c r="C37">
         <v>168</v>
       </c>
-      <c r="D5">
-        <v>162</v>
-      </c>
-      <c r="E5">
-        <v>17.350000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>74.64</v>
+      </c>
+      <c r="F37">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B6">
-        <v>39</v>
-      </c>
-      <c r="C6">
+      <c r="B38">
+        <v>216</v>
+      </c>
+      <c r="C38">
         <v>156</v>
       </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-      <c r="E6">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>67.33</v>
+      </c>
+      <c r="F38">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>98</v>
       </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
+      <c r="B39">
+        <v>216</v>
+      </c>
+      <c r="C39">
         <v>144</v>
       </c>
-      <c r="D7">
-        <v>138</v>
-      </c>
-      <c r="E7">
-        <v>18.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>65.28</v>
+      </c>
+      <c r="F39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>99</v>
       </c>
-      <c r="B8">
-        <v>39</v>
-      </c>
-      <c r="C8">
+      <c r="B40">
+        <v>216</v>
+      </c>
+      <c r="C40">
         <v>141</v>
       </c>
-      <c r="D8">
-        <v>135</v>
-      </c>
-      <c r="E8">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>63.379999999999995</v>
+      </c>
+      <c r="F40">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>100</v>
       </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-      <c r="C9">
+      <c r="B41">
+        <v>216</v>
+      </c>
+      <c r="C41">
         <v>129</v>
       </c>
-      <c r="D9">
-        <v>123</v>
-      </c>
-      <c r="E9">
-        <v>15.78</v>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>56.144600000000004</v>
+      </c>
+      <c r="F41">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
